--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>11.13090654781819</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>4.250403441759332</v>
+        <v>10.67037004222142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>7.288845540350142</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.4403043663515627</v>
+        <v>10.06916370210014</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.672550446571067</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-4.863612052120669</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-7.734705730272207</v>
+        <v>-0.7156496512470745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-4.715480642250625</v>
+        <v>-20.40984652067478</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.3246588641724446</v>
+        <v>-33.45158075171641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-14.45332333832743</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>4.971219206652289</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>8.339224397982537</v>
+        <v>7.857938327064184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>6.130685532900904</v>
+        <v>5.331710924091837</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>10.93878320223642</v>
+        <v>10.84949786623359</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>8.600536527919633</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>7.811215241305947</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>4.031704512073442</v>
+        <v>12.64892828543749</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.703939237318981</v>
+        <v>11.04982736891558</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>7.045827166136265</v>
+        <v>9.589921161142879</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>10.25770250047622</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>2.445874489688427</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>10.40099841437159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.688274587589135</v>
+        <v>4.748210439985256</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.5371134995173943</v>
+        <v>7.086193663490992</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>4.639893381363169</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.2205946859888952</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.019823939274001</v>
+        <v>6.662398279632087</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9946838291217786</v>
+        <v>-2.313034291448757</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>4.337889946080642</v>
+        <v>-7.020874871669158</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3058963467304165</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.795578952966207</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>5.994935783457533</v>
+        <v>1.195213983078647</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.562499360312567</v>
+        <v>3.711391384148</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>5.414309760518599</v>
+        <v>0.6610955960690834</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>4.068173739091874</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>3.867019351064327</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>4.039479729740392</v>
+        <v>7.055025120039615</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.195080504802551</v>
+        <v>3.860244074450181</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.288687767037392</v>
+        <v>3.254220449867029</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>4.984288257750213</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>4.418912321243895</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>5.169567952506848</v>
+        <v>1.985659800779893</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4.230623896992025</v>
+        <v>2.370939381494686</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.721310469235185</v>
+        <v>3.967543131851214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.878184267712912</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.558300350845723</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>4.85073564559062</v>
+        <v>-0.3562142672005275</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.933871867981643</v>
+        <v>4.421855465610292</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.667697602089539</v>
+        <v>5.260364862099642</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>4.695933104194339</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>6.424629726820497</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>6.649482377221383</v>
+        <v>6.493919935864634</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.917332732513647</v>
+        <v>9.429264335267163</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>5.315252867185194</v>
+        <v>11.40563592910597</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.195253053567228</v>
+        <v>3.320585727896552</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.809676696639761</v>
+        <v>-4.098213472638578</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.456119081407906</v>
+        <v>5.276665321936447</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>5.109756364211493</v>
+        <v>2.51398037094428</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.892602738886098</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.344345976370056</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.82953744009995</v>
+        <v>-2.576675125869599</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.922954850906991</v>
+        <v>1.320842979722947</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>7.028919462121941</v>
+        <v>2.636028935395296</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.879173979018335</v>
+        <v>1.782333336406405</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-2.919779329832006</v>
+        <v>4.060401000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.346849276607955</v>
+        <v>0.3252781783188663</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.97821861612606</v>
+        <v>-4.518236404743526</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.8049382522247184</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.588541998564665</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>4.689812079774569</v>
+        <v>3.1919852842623</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.5400539526627224</v>
+        <v>-0.1289008616491616</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-6.088611755952167</v>
+        <v>-0.9308772335758553</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-9.2489161297999</v>
+        <v>-4.477718018907028</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>26.88332882891997</v>
+        <v>-11.83522404790002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.2489161297999</v>
+        <v>-9.810777096850787</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.6600838837054424</v>
+        <v>29.96709940045137</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-8.784173899737169</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.8419296439390545</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>7.425901647531985</v>
+        <v>6.942816049735523</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.377342603484732</v>
+        <v>7.026336004273714</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.602446168435437</v>
+        <v>7.425901647531985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.287084480507283</v>
+        <v>6.317691071509768</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.833977827885772</v>
+        <v>4.613033063261129</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.287084480507283</v>
+        <v>5.797134106720514</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.021773588311327</v>
+        <v>5.455672087096408</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>5.110501195359984</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-0.6114071335973414</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-7.844778655777684</v>
+        <v>0.8094958705429534</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.745367215598259</v>
+        <v>2.670821531651923</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.731000985331101</v>
+        <v>-7.844778655777695</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.494343500592232</v>
+        <v>3.79744344971964</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.4627519848125816</v>
+        <v>3.703837953294542</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.494343500592232</v>
+        <v>4.232564748995715</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.9224056514420487</v>
+        <v>0.3861805562020093</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.120680133083599</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-1.237264626609702</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-2.52763454503796</v>
+        <v>0.5542886326586061</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.8012998430370399</v>
+        <v>-0.2545313393182314</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.3471506893650611</v>
+        <v>-2.527634545037938</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.6982718287330991</v>
+        <v>0.4998689793225486</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.008573391811041</v>
+        <v>-0.08221002454066317</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.6982718287330991</v>
+        <v>0.08070151925247959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.447134308235177</v>
+        <v>0.7505831475431046</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.5532735011319234</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-1.313948367823292</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-1.015253537920036</v>
+        <v>-3.561435976944571</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.04127301632155245</v>
+        <v>-2.978154922642562</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>5.940231423416042</v>
+        <v>-1.015253537920036</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.4137309550271362</v>
+        <v>0.1967053802870877</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.09419317421989204</v>
+        <v>6.289039804796182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.4137309550271362</v>
+        <v>-0.9685570952743805</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.50203253274761</v>
+        <v>-0.5620920786801986</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.069674659641462</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>-0.1320353926748563</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-2.75119659355485</v>
+        <v>0.01743232028155184</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.1536935860888322</v>
+        <v>-4.169154013177412</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-1.343575587991863</v>
+        <v>-2.751196593554839</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2267356977060819</v>
+        <v>-2.056549539789942</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.400063609740664</v>
+        <v>-0.3884660724497446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.436529450546909</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.4756432387424292</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.810777096850787</v>
+        <v>-16.12838793350732</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>29.96709940045137</v>
+        <v>-57.14802790903944</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>6.942816049735523</v>
+        <v>53.94004854052488</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>7.026336004273714</v>
+        <v>11.48742096710476</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.425901647531985</v>
+        <v>19.4553817824848</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>6.317691071509768</v>
+        <v>6.928818429977701</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.613033063261129</v>
+        <v>7.603837152144077</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>5.797134106720514</v>
+        <v>5.555562147330262</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.455672087096408</v>
+        <v>2.400799203920689</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.8094958705429534</v>
+        <v>-2.541600728425897</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.670821531651923</v>
+        <v>13.67762247606108</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-7.844778655777695</v>
+        <v>20.55431402884298</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.79744344971964</v>
+        <v>1.316649728677288</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.703837953294542</v>
+        <v>-8.227322176512519</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.232564748995715</v>
+        <v>4.27366463517076</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.3861805562020093</v>
+        <v>0.9017139833962018</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.5542886326586061</v>
+        <v>6.76879177976033</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.2545313393182314</v>
+        <v>-0.7317253369667265</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-2.527634545037938</v>
+        <v>-3.774469028318772</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.4998689793225486</v>
+        <v>0.8562564928550565</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.08221002454066317</v>
+        <v>1.69719863895359</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.08070151925247959</v>
+        <v>-0.2799943257218107</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.7505831475431046</v>
+        <v>-3.897546227660642</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-3.561435976944571</v>
+        <v>-2.911323063974547</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.978154922642562</v>
+        <v>-4.911273445035647</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-1.015253537920036</v>
+        <v>-6.226959158104961</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1967053802870877</v>
+        <v>-0.1644433828108749</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>6.289039804796182</v>
+        <v>4.412091139052166</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9685570952743805</v>
+        <v>-0.9443791826375447</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.5620920786801986</v>
+        <v>-0.2465826728646037</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.01743232028155184</v>
+        <v>-5.499724587330523</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-4.169154013177412</v>
+        <v>-6.370988076954709</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-2.751196593554839</v>
+        <v>-8.666940084126063</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-2.056549539789942</v>
+        <v>0.602228449891351</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.3884660724497446</v>
+        <v>13.57938250040038</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.436529450546909</v>
+        <v>-2.462305621777361</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.4756432387424292</v>
+        <v>0.1329973408891849</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>11.13090654781819</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>10.67037004222142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>7.288845540350142</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>10.06916370210014</v>
+        <v>10.06916370210016</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,9 +447,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.672550446571067</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-20.40984652067478</v>
+        <v>-20.40984652067477</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-33.45158075171641</v>
+        <v>-33.45158075171639</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-14.45332333832743</v>
+        <v>-14.45332333832744</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>7.857938327064184</v>
+        <v>7.857938327064207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>5.331710924091837</v>
+        <v>5.331710924091815</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>8.600536527919633</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>11.04982736891558</v>
+        <v>11.04982736891555</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>9.589921161142879</v>
+        <v>9.5899211611429</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -582,7 +570,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>7.086193663490992</v>
+        <v>7.086193663491014</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>4.639893381363169</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-2.313034291448757</v>
+        <v>-2.313034291448768</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>3.860244074450181</v>
+        <v>3.860244074450203</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>3.254220449867029</v>
+        <v>3.254220449867051</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.985659800779893</v>
+        <v>1.985659800779915</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.421855465610292</v>
+        <v>4.421855465610269</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.260364862099642</v>
+        <v>5.26036486209962</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +751,13 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>4.695933104194339</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="D22">
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>6.493919935864634</v>
+        <v>6.493919935864612</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>11.40563592910597</v>
+        <v>11.40563592910599</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +785,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.320585727896552</v>
+        <v>3.320585727896574</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-4.098213472638578</v>
+        <v>-4.09821347263859</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.276665321936447</v>
+        <v>5.276665321936491</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.51398037094428</v>
+        <v>2.513980370944258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -854,7 +842,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.636028935395296</v>
+        <v>2.636028935395318</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,7 +853,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.782333336406405</v>
+        <v>1.782333336406383</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.3252781783188663</v>
+        <v>0.3252781783188441</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -905,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>3.1919852842623</v>
+        <v>3.191985284262278</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.1289008616491616</v>
+        <v>-0.1289008616491394</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.9308772335758553</v>
+        <v>-0.9308772335758664</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-11.83522404790002</v>
+        <v>-11.8352240479</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>53.94004854052488</v>
+        <v>53.94004854052483</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1001,7 +989,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>6.928818429977701</v>
+        <v>6.928818429977723</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -1018,7 +1006,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>5.555562147330262</v>
+        <v>5.555562147330284</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1058,7 +1046,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>20.55431402884298</v>
+        <v>20.55431402884296</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.27366463517076</v>
+        <v>4.273664635170782</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>5.120680133083599</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.7317253369667265</v>
+        <v>-0.7317253369667154</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-3.774469028318772</v>
+        <v>-3.774469028318805</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1125,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.8562564928550565</v>
+        <v>0.8562564928550342</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.69719863895359</v>
+        <v>1.697198638953612</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1160,7 +1148,7 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-3.897546227660642</v>
+        <v>-3.897546227660653</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.5532735011319234</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-2.911323063974547</v>
+        <v>-2.911323063974536</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-4.911273445035647</v>
+        <v>-4.911273445035658</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-6.226959158104961</v>
+        <v>-6.226959158104972</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1644433828108749</v>
+        <v>-0.1644433828108638</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1228,7 +1216,7 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.2465826728646037</v>
+        <v>-0.2465826728646148</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1233,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-5.499724587330523</v>
+        <v>-5.499724587330512</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1262,7 +1250,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-8.666940084126063</v>
+        <v>-8.666940084126084</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.1329973408891849</v>
+        <v>0.1329973408891627</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>0.1329973408891627</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.451276118722334</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-1.596682557877005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
